--- a/biology/Zoologie/Alburnus_kotschyi/Alburnus_kotschyi.xlsx
+++ b/biology/Zoologie/Alburnus_kotschyi/Alburnus_kotschyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alburnus kotschyi (en anglais Iskenderun Shah Kuli[2] ou Arsuz bleak[3]) est un poisson d'eau douce de la famille des Cyprinidae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alburnus kotschyi (en anglais Iskenderun Shah Kuli ou Arsuz bleak) est un poisson d'eau douce de la famille des Cyprinidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alburnus kotschyi est endémique de Turquie. Cette espèce se rencontre dans les rivières se jetant dans le golfe d'Alexandrette, ainsi que dans la Seyhan et le Ceyhan[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alburnus kotschyi est endémique de Turquie. Cette espèce se rencontre dans les rivières se jetant dans le golfe d'Alexandrette, ainsi que dans la Seyhan et le Ceyhan.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce lui a donné en l'honneur du Dr Kotshy[4]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce lui a donné en l'honneur du Dr Kotshy
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Steindachner, 1863 : Ueber eine neue Alburnus-Art aus Syrien. Sitzungsberichte der Mathematisch-Naturwissenschaftlichen Classe der Kaiserlichen Akademie der Wissenschaften, vol. 48, p. 193-194[5]. (texte intégral).</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Steindachner, 1863 : Ueber eine neue Alburnus-Art aus Syrien. Sitzungsberichte der Mathematisch-Naturwissenschaftlichen Classe der Kaiserlichen Akademie der Wissenschaften, vol. 48, p. 193-194. (texte intégral).</t>
         </is>
       </c>
     </row>
